--- a/analisi_covarianza_SR.xlsx
+++ b/analisi_covarianza_SR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\SR single micro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2DA74F-F254-4CE2-B446-231EB4F9FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF8574B-7DDA-428B-AAA8-73FDF130140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ANOVA_mck" sheetId="1" r:id="rId3"/>
     <sheet name="ANCOVA" sheetId="2" r:id="rId4"/>
     <sheet name="ANOVA_ripulita" sheetId="3" r:id="rId5"/>
+    <sheet name="medie_corrette" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -617,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
@@ -6907,7 +6908,7 @@
   <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7025,7 +7026,7 @@
   <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7414,7 +7415,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7652,4 +7653,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA2591-277F-4084-AD79-B2D2254C601C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>